--- a/MainFile.xlsx
+++ b/MainFile.xlsx
@@ -8,28 +8,50 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/preet.sheth/Sprinklr/Jane Street Puzzles/Mar_2024_Hooks10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56EF4B4C-2936-1542-B1FA-075FAD667342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA736D4C-9543-5546-A9F0-F4EEE4CB51B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Actual Puzzle</t>
+  </si>
+  <si>
+    <t>Wrong Code output example.</t>
+  </si>
+  <si>
+    <t>5*7*1*1*1*6*1*1*2*5*2*1*1*2</t>
+  </si>
+  <si>
+    <t>Final Answer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,8 +66,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -54,16 +126,101 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.24994659260841701"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="23">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -147,25 +304,211 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,288 +813,1421 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L26"/>
+  <dimension ref="A2:AJ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="12" width="8.83203125" style="2"/>
+    <col min="10" max="12" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="48" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:26" ht="48" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+    </row>
+    <row r="3" spans="1:26" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3">
         <v>18</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+    </row>
+    <row r="4" spans="1:26" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
         <v>12</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+    </row>
+    <row r="5" spans="1:26" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6">
         <v>31</v>
       </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
+      <c r="I5" s="7"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="31"/>
+    </row>
+    <row r="6" spans="1:26" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+    </row>
+    <row r="7" spans="1:26" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6">
         <v>11</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
         <v>22</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6">
         <v>22</v>
       </c>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7">
+      <c r="I7" s="7"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="31"/>
+    </row>
+    <row r="8" spans="1:26" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+    </row>
+    <row r="9" spans="1:26" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6">
         <v>19</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7">
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+    </row>
+    <row r="10" spans="1:26" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
         <v>14</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" ht="48" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+    </row>
+    <row r="11" spans="1:26" ht="48" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9">
         <v>22</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
         <v>15</v>
       </c>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="17" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4">
+      <c r="I11" s="10"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="31"/>
+    </row>
+    <row r="17" spans="1:36" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:36" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3">
         <v>18</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4">
-        <v>7</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3">
+        <v>7</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="3">
+        <v>18</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3">
+        <v>7</v>
+      </c>
+      <c r="T18" s="3"/>
+      <c r="U18" s="4"/>
+      <c r="Y18" s="35">
+        <v>6</v>
+      </c>
+      <c r="Z18" s="11">
+        <v>18</v>
+      </c>
+      <c r="AA18" s="29">
+        <v>7</v>
+      </c>
+      <c r="AB18" s="30">
+        <v>7</v>
+      </c>
+      <c r="AC18" s="30">
+        <v>7</v>
+      </c>
+      <c r="AD18" s="30">
+        <v>7</v>
+      </c>
+      <c r="AE18" s="12">
+        <v>7</v>
+      </c>
+      <c r="AF18" s="42">
+        <v>7</v>
+      </c>
+      <c r="AG18" s="42">
+        <v>9</v>
+      </c>
+      <c r="AJ18" s="45"/>
+    </row>
+    <row r="19" spans="1:36" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="23">
+        <v>9</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21">
         <v>12</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7">
-        <v>9</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7">
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="7"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6">
+        <v>12</v>
+      </c>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="7"/>
+      <c r="Y19" s="38">
+        <v>6</v>
+      </c>
+      <c r="Z19" s="38">
+        <v>5</v>
+      </c>
+      <c r="AA19" s="35">
+        <v>4</v>
+      </c>
+      <c r="AB19" s="30">
+        <v>4</v>
+      </c>
+      <c r="AC19" s="27">
+        <v>12</v>
+      </c>
+      <c r="AD19" s="42">
+        <v>4</v>
+      </c>
+      <c r="AE19" s="42">
+        <v>8</v>
+      </c>
+      <c r="AF19" s="28">
+        <v>7</v>
+      </c>
+      <c r="AG19" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="21">
         <v>31</v>
       </c>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7">
-        <v>5</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7">
+      <c r="I20" s="7"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6">
+        <v>9</v>
+      </c>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="21">
+        <v>31</v>
+      </c>
+      <c r="U20" s="7"/>
+      <c r="Y20" s="38">
+        <v>6</v>
+      </c>
+      <c r="Z20" s="38">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="14">
+        <v>9</v>
+      </c>
+      <c r="AB20" s="34">
+        <v>2</v>
+      </c>
+      <c r="AC20" s="31">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="34">
+        <v>3</v>
+      </c>
+      <c r="AE20" s="32">
+        <v>8</v>
+      </c>
+      <c r="AF20" s="25">
+        <v>31</v>
+      </c>
+      <c r="AG20" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="7"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="7"/>
+      <c r="Y21" s="38">
+        <v>6</v>
+      </c>
+      <c r="Z21" s="38">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="38">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="41">
+        <v>2</v>
+      </c>
+      <c r="AC21" s="44">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="32">
+        <v>3</v>
+      </c>
+      <c r="AE21" s="32">
+        <v>8</v>
+      </c>
+      <c r="AF21" s="28">
+        <v>7</v>
+      </c>
+      <c r="AG21" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6">
+        <v>5</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6">
         <v>11</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6">
         <v>22</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7">
+      <c r="G22" s="6"/>
+      <c r="H22" s="21">
         <v>22</v>
       </c>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7">
-        <v>9</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7">
+      <c r="I22" s="7"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="6">
+        <v>5</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6">
+        <v>22</v>
+      </c>
+      <c r="S22" s="6"/>
+      <c r="T22" s="21">
+        <v>22</v>
+      </c>
+      <c r="U22" s="7"/>
+      <c r="Y22" s="38">
+        <v>6</v>
+      </c>
+      <c r="Z22" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="41">
+        <v>4</v>
+      </c>
+      <c r="AB22" s="26">
+        <v>11</v>
+      </c>
+      <c r="AC22" s="30">
+        <v>3</v>
+      </c>
+      <c r="AD22" s="18">
+        <v>22</v>
+      </c>
+      <c r="AE22" s="28">
+        <v>8</v>
+      </c>
+      <c r="AF22" s="25">
+        <v>22</v>
+      </c>
+      <c r="AG22" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="7"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="7"/>
+      <c r="Y23" s="38">
+        <v>6</v>
+      </c>
+      <c r="Z23" s="38">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="41">
+        <v>8</v>
+      </c>
+      <c r="AB23" s="41">
+        <v>8</v>
+      </c>
+      <c r="AC23" s="41">
+        <v>8</v>
+      </c>
+      <c r="AD23" s="41">
+        <v>8</v>
+      </c>
+      <c r="AE23" s="41">
+        <v>8</v>
+      </c>
+      <c r="AF23" s="43">
+        <v>7</v>
+      </c>
+      <c r="AG23" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6">
+        <v>9</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
         <v>19</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7">
+      <c r="H24" s="21"/>
+      <c r="I24" s="7"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="6">
+        <v>9</v>
+      </c>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6">
+        <v>19</v>
+      </c>
+      <c r="T24" s="21"/>
+      <c r="U24" s="7"/>
+      <c r="Y24" s="38">
+        <v>6</v>
+      </c>
+      <c r="Z24" s="16">
+        <v>9</v>
+      </c>
+      <c r="AA24" s="30">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="40">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="40">
+        <v>5</v>
+      </c>
+      <c r="AD24" s="40">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="17">
+        <v>19</v>
+      </c>
+      <c r="AF24" s="39">
+        <v>5</v>
+      </c>
+      <c r="AG24" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
         <v>14</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:9" ht="48" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="7"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6">
+        <v>14</v>
+      </c>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="7"/>
+      <c r="Y25" s="38">
+        <v>6</v>
+      </c>
+      <c r="Z25" s="29">
+        <v>9</v>
+      </c>
+      <c r="AA25" s="30">
+        <v>9</v>
+      </c>
+      <c r="AB25" s="30">
+        <v>9</v>
+      </c>
+      <c r="AC25" s="27">
+        <v>14</v>
+      </c>
+      <c r="AD25" s="30">
+        <v>9</v>
+      </c>
+      <c r="AE25" s="30">
+        <v>9</v>
+      </c>
+      <c r="AF25" s="30">
+        <v>9</v>
+      </c>
+      <c r="AG25" s="39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" ht="48" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9">
         <v>22</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="22">
         <v>15</v>
       </c>
-      <c r="I26" s="11"/>
+      <c r="I26" s="10"/>
+      <c r="M26" s="24">
+        <v>9</v>
+      </c>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22">
+        <v>22</v>
+      </c>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22">
+        <v>15</v>
+      </c>
+      <c r="U26" s="10"/>
+      <c r="Y26" s="41">
+        <v>6</v>
+      </c>
+      <c r="Z26" s="30">
+        <v>6</v>
+      </c>
+      <c r="AA26" s="46">
+        <v>22</v>
+      </c>
+      <c r="AB26" s="40">
+        <v>6</v>
+      </c>
+      <c r="AC26" s="40">
+        <v>6</v>
+      </c>
+      <c r="AD26" s="40">
+        <v>6</v>
+      </c>
+      <c r="AE26" s="40">
+        <v>6</v>
+      </c>
+      <c r="AF26" s="17">
+        <v>15</v>
+      </c>
+      <c r="AG26" s="39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" ht="24" x14ac:dyDescent="0.3">
+      <c r="V28" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="63"/>
+      <c r="AA28" s="63"/>
+      <c r="AB28" s="63"/>
+      <c r="AC28" s="63"/>
+      <c r="AD28" s="63"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="63"/>
+      <c r="AH28" s="63"/>
+      <c r="AI28" s="63"/>
+      <c r="AJ28" s="63"/>
+    </row>
+    <row r="33" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="35">
+        <v>9</v>
+      </c>
+      <c r="B33" s="12">
+        <v>18</v>
+      </c>
+      <c r="C33" s="36">
+        <v>9</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="12">
+        <v>7</v>
+      </c>
+      <c r="H33" s="33"/>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="11"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12">
+        <v>12</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="36">
+        <v>7</v>
+      </c>
+      <c r="H34" s="36">
+        <v>7</v>
+      </c>
+      <c r="I34" s="28"/>
+    </row>
+    <row r="35" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="14"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27">
+        <v>9</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="30">
+        <v>8</v>
+      </c>
+      <c r="H35" s="13">
+        <v>31</v>
+      </c>
+      <c r="I35" s="28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="25"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="28">
+        <v>8</v>
+      </c>
+      <c r="I36" s="25"/>
+    </row>
+    <row r="37" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="25"/>
+      <c r="B37" s="6">
+        <v>5</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6">
+        <v>11</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6">
+        <v>22</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="25">
+        <v>22</v>
+      </c>
+      <c r="I37" s="25"/>
+    </row>
+    <row r="38" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="25"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+    </row>
+    <row r="39" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="25"/>
+      <c r="B39" s="6">
+        <v>9</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6">
+        <v>19</v>
+      </c>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+    </row>
+    <row r="40" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="25"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6">
+        <v>14</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="25"/>
+    </row>
+    <row r="41" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="19"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6">
+        <v>22</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="19">
+        <v>15</v>
+      </c>
+      <c r="I41" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="B45" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+    </row>
+    <row r="47" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="29">
+        <v>9</v>
+      </c>
+      <c r="B47" s="27">
+        <v>18</v>
+      </c>
+      <c r="C47" s="30">
+        <v>9</v>
+      </c>
+      <c r="D47" s="30">
+        <v>9</v>
+      </c>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="27">
+        <v>7</v>
+      </c>
+      <c r="H47" s="30"/>
+      <c r="I47" s="42"/>
+    </row>
+    <row r="48" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="35">
+        <v>7</v>
+      </c>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36">
+        <v>7</v>
+      </c>
+      <c r="E48" s="12">
+        <v>12</v>
+      </c>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36">
+        <v>7</v>
+      </c>
+      <c r="H48" s="42">
+        <v>7</v>
+      </c>
+      <c r="I48" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="34">
+        <v>6</v>
+      </c>
+      <c r="B49" s="35"/>
+      <c r="C49" s="11">
+        <v>9</v>
+      </c>
+      <c r="D49" s="36">
+        <v>5</v>
+      </c>
+      <c r="E49" s="36">
+        <v>5</v>
+      </c>
+      <c r="F49" s="42">
+        <v>5</v>
+      </c>
+      <c r="G49" s="34">
+        <v>8</v>
+      </c>
+      <c r="H49" s="15">
+        <v>31</v>
+      </c>
+      <c r="I49" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="28">
+        <v>6</v>
+      </c>
+      <c r="B50" s="38">
+        <v>3</v>
+      </c>
+      <c r="C50" s="35">
+        <v>4</v>
+      </c>
+      <c r="D50" s="36">
+        <v>4</v>
+      </c>
+      <c r="E50" s="42"/>
+      <c r="F50" s="28">
+        <v>5</v>
+      </c>
+      <c r="G50" s="28"/>
+      <c r="H50" s="32">
+        <v>7</v>
+      </c>
+      <c r="I50" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="28"/>
+      <c r="B51" s="25">
+        <v>5</v>
+      </c>
+      <c r="C51" s="35">
+        <v>2</v>
+      </c>
+      <c r="D51" s="20">
+        <v>11</v>
+      </c>
+      <c r="E51" s="32">
+        <v>4</v>
+      </c>
+      <c r="F51" s="25">
+        <v>22</v>
+      </c>
+      <c r="G51" s="28">
+        <v>8</v>
+      </c>
+      <c r="H51" s="15">
+        <v>22</v>
+      </c>
+      <c r="I51" s="32"/>
+    </row>
+    <row r="52" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="43">
+        <v>2</v>
+      </c>
+      <c r="D52" s="31">
+        <v>1</v>
+      </c>
+      <c r="E52" s="43">
+        <v>4</v>
+      </c>
+      <c r="F52" s="43">
+        <v>5</v>
+      </c>
+      <c r="G52" s="28">
+        <v>8</v>
+      </c>
+      <c r="H52" s="32">
+        <v>7</v>
+      </c>
+      <c r="I52" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="28"/>
+      <c r="B53" s="16">
+        <v>9</v>
+      </c>
+      <c r="C53" s="40">
+        <v>3</v>
+      </c>
+      <c r="D53" s="30"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="39">
+        <v>3</v>
+      </c>
+      <c r="G53" s="15">
+        <v>19</v>
+      </c>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="41">
+        <v>6</v>
+      </c>
+      <c r="B54" s="40">
+        <v>6</v>
+      </c>
+      <c r="C54" s="40">
+        <v>6</v>
+      </c>
+      <c r="D54" s="40">
+        <v>6</v>
+      </c>
+      <c r="E54" s="17">
+        <v>14</v>
+      </c>
+      <c r="F54" s="39"/>
+      <c r="G54" s="32">
+        <v>8</v>
+      </c>
+      <c r="H54" s="32">
+        <v>7</v>
+      </c>
+      <c r="I54" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="41"/>
+      <c r="B55" s="40">
+        <v>8</v>
+      </c>
+      <c r="C55" s="17">
+        <v>22</v>
+      </c>
+      <c r="D55" s="40">
+        <v>8</v>
+      </c>
+      <c r="E55" s="40">
+        <v>8</v>
+      </c>
+      <c r="F55" s="40"/>
+      <c r="G55" s="39">
+        <v>8</v>
+      </c>
+      <c r="H55" s="18">
+        <v>15</v>
+      </c>
+      <c r="I55" s="39"/>
+    </row>
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="64"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
+    </row>
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="64"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+    </row>
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="64"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+    </row>
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="64"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+    </row>
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="64"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="64"/>
+    </row>
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="64"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+    </row>
+    <row r="68" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="29">
+        <v>9</v>
+      </c>
+      <c r="B68" s="47"/>
+      <c r="C68" s="30">
+        <v>9</v>
+      </c>
+      <c r="D68" s="30">
+        <v>9</v>
+      </c>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="54"/>
+    </row>
+    <row r="69" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="35">
+        <v>7</v>
+      </c>
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="36">
+        <v>7</v>
+      </c>
+      <c r="E69" s="51"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="36">
+        <v>7</v>
+      </c>
+      <c r="H69" s="42">
+        <v>7</v>
+      </c>
+      <c r="I69" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="34">
+        <v>6</v>
+      </c>
+      <c r="B70" s="49"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="36">
+        <v>5</v>
+      </c>
+      <c r="E70" s="36">
+        <v>5</v>
+      </c>
+      <c r="F70" s="42">
+        <v>5</v>
+      </c>
+      <c r="G70" s="34">
+        <v>8</v>
+      </c>
+      <c r="H70" s="55"/>
+      <c r="I70" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="28">
+        <v>6</v>
+      </c>
+      <c r="B71" s="38">
+        <v>3</v>
+      </c>
+      <c r="C71" s="35">
+        <v>4</v>
+      </c>
+      <c r="D71" s="36">
+        <v>4</v>
+      </c>
+      <c r="E71" s="55"/>
+      <c r="F71" s="28">
+        <v>5</v>
+      </c>
+      <c r="G71" s="55"/>
+      <c r="H71" s="32">
+        <v>7</v>
+      </c>
+      <c r="I71" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="56"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="35">
+        <v>2</v>
+      </c>
+      <c r="D72" s="55"/>
+      <c r="E72" s="32">
+        <v>4</v>
+      </c>
+      <c r="F72" s="55"/>
+      <c r="G72" s="28">
+        <v>8</v>
+      </c>
+      <c r="H72" s="60"/>
+      <c r="I72" s="60"/>
+    </row>
+    <row r="73" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="56"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="43">
+        <v>2</v>
+      </c>
+      <c r="D73" s="31">
+        <v>1</v>
+      </c>
+      <c r="E73" s="43">
+        <v>4</v>
+      </c>
+      <c r="F73" s="43">
+        <v>5</v>
+      </c>
+      <c r="G73" s="28">
+        <v>8</v>
+      </c>
+      <c r="H73" s="32">
+        <v>7</v>
+      </c>
+      <c r="I73" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="56"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="40">
+        <v>3</v>
+      </c>
+      <c r="D74" s="49"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="39">
+        <v>3</v>
+      </c>
+      <c r="G74" s="60"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="41">
+        <v>6</v>
+      </c>
+      <c r="B75" s="40">
+        <v>6</v>
+      </c>
+      <c r="C75" s="40">
+        <v>6</v>
+      </c>
+      <c r="D75" s="40">
+        <v>6</v>
+      </c>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="32">
+        <v>8</v>
+      </c>
+      <c r="H75" s="32">
+        <v>7</v>
+      </c>
+      <c r="I75" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="55"/>
+      <c r="B76" s="40">
+        <v>8</v>
+      </c>
+      <c r="C76" s="61"/>
+      <c r="D76" s="40">
+        <v>8</v>
+      </c>
+      <c r="E76" s="40">
+        <v>8</v>
+      </c>
+      <c r="F76" s="49"/>
+      <c r="G76" s="39">
+        <v>8</v>
+      </c>
+      <c r="H76" s="59"/>
+      <c r="I76" s="60"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="66"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="66"/>
+      <c r="H78" s="66"/>
+      <c r="I78" s="66"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="66"/>
+      <c r="B79" s="66"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="66"/>
+      <c r="I79" s="66"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="66"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="66"/>
+      <c r="F80" s="66"/>
+      <c r="G80" s="66"/>
+      <c r="H80" s="66"/>
+      <c r="I80" s="66"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="66"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="66"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="66"/>
+      <c r="I81" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="V28:AJ28"/>
+    <mergeCell ref="A57:I62"/>
+    <mergeCell ref="A78:I81"/>
+    <mergeCell ref="B45:H45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
